--- a/level-2/leetcode/linear-data-structures-2/leetcode-linear-data-structures-2.xlsx
+++ b/level-2/leetcode/linear-data-structures-2/leetcode-linear-data-structures-2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B15E055-7C05-43BD-8C56-D674E785A7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D199F73C-CBB7-4BD2-AB61-88826FF2AF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -715,7 +715,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -733,32 +733,6 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
@@ -773,26 +747,18 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <scheme val="major"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
       <u/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -874,67 +840,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1287,91 +1237,90 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="7" width="15.109375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.33203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="8" customWidth="1"/>
+    <col min="3" max="7" width="15.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="67.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="6" t="e">
-        <f>AVERAGE(C4:C166)</f>
+      <c r="J1" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="1" t="e">
+        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C250)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D3" s="6" t="e">
-        <f>AVERAGE(D4:D166)</f>
+      <c r="D3" s="1" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E3" s="6" t="e">
-        <f>AVERAGE(E4:E166)</f>
+      <c r="E3" s="1" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F3" s="6" t="e">
-        <f>AVERAGE(F4:F166)</f>
+      <c r="F3" s="1" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G3" s="6" t="e">
-        <f>AVERAGE(G4:G166)</f>
+      <c r="G3" s="1" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H3" s="6">
-        <f>AVERAGE(H4:H166)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <f>COUNTA(I4:I841)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <f>COUNTA(J4:J841)</f>
+      <c r="H3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <f>COUNTA(I4:I250)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <f>COUNTA(J4:J250)</f>
         <v>211</v>
       </c>
     </row>
@@ -1382,17 +1331,11 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7">
-        <f>SUM(C4:G4)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="10" t="s">
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H35" si="1">SUM(C4:G4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1403,16 +1346,11 @@
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7">
-        <f>SUM(C5:G5)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="10" t="s">
+      <c r="H5" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1423,17 +1361,11 @@
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7">
-        <f>SUM(C6:G6)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="10" t="s">
+      <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1444,17 +1376,11 @@
       <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7">
-        <f>SUM(C7:G7)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="10" t="s">
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1465,17 +1391,11 @@
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7">
-        <f>SUM(C8:G8)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="10" t="s">
+      <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1486,17 +1406,11 @@
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="7">
-        <f>SUM(C9:G9)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="10" t="s">
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1507,17 +1421,11 @@
       <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="7">
-        <f>SUM(C10:G10)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="10" t="s">
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1528,17 +1436,11 @@
       <c r="B11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="7">
-        <f>SUM(C11:G11)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="10" t="s">
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1549,17 +1451,11 @@
       <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="7">
-        <f>SUM(C12:G12)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="10" t="s">
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1570,17 +1466,11 @@
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="7">
-        <f>SUM(C13:G13)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="10" t="s">
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1591,17 +1481,11 @@
       <c r="B14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7">
-        <f>SUM(C14:G14)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="10" t="s">
+      <c r="H14" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1612,17 +1496,11 @@
       <c r="B15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="7">
-        <f>SUM(C15:G15)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="10" t="s">
+      <c r="H15" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1633,17 +1511,11 @@
       <c r="B16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="7">
-        <f>SUM(C16:G16)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="10" t="s">
+      <c r="H16" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1654,17 +1526,11 @@
       <c r="B17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="7">
-        <f>SUM(C17:G17)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="10" t="s">
+      <c r="H17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1675,17 +1541,11 @@
       <c r="B18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="7">
-        <f>SUM(C18:G18)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="10" t="s">
+      <c r="H18" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1696,17 +1556,11 @@
       <c r="B19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="7">
-        <f>SUM(C19:G19)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="10" t="s">
+      <c r="H19" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1717,17 +1571,11 @@
       <c r="B20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="7">
-        <f>SUM(C20:G20)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="10" t="s">
+      <c r="H20" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1738,17 +1586,11 @@
       <c r="B21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="7">
-        <f>SUM(C21:G21)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="10" t="s">
+      <c r="H21" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1759,17 +1601,11 @@
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="7">
-        <f>SUM(C22:G22)</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="10" t="s">
+      <c r="H22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1780,17 +1616,11 @@
       <c r="B23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="7">
-        <f>SUM(C23:G23)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="10" t="s">
+      <c r="H23" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1801,17 +1631,11 @@
       <c r="B24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="7">
-        <f>SUM(C24:G24)</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="10" t="s">
+      <c r="H24" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1822,17 +1646,11 @@
       <c r="B25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="7">
-        <f>SUM(C25:G25)</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="10" t="s">
+      <c r="H25" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1843,17 +1661,11 @@
       <c r="B26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="7">
-        <f>SUM(C26:G26)</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="10" t="s">
+      <c r="H26" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1864,17 +1676,11 @@
       <c r="B27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="7">
-        <f>SUM(C27:G27)</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="10" t="s">
+      <c r="H27" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1885,17 +1691,11 @@
       <c r="B28" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="7">
-        <f>SUM(C28:G28)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="10" t="s">
+      <c r="H28" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1906,17 +1706,11 @@
       <c r="B29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="7">
-        <f>SUM(C29:G29)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="10" t="s">
+      <c r="H29" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1927,17 +1721,11 @@
       <c r="B30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="7">
-        <f>SUM(C30:G30)</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="10" t="s">
+      <c r="H30" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1948,17 +1736,11 @@
       <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="7">
-        <f>SUM(C31:G31)</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="10" t="s">
+      <c r="H31" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1969,17 +1751,11 @@
       <c r="B32" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="7">
-        <f>SUM(C32:G32)</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="10" t="s">
+      <c r="H32" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1990,17 +1766,11 @@
       <c r="B33" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="7">
-        <f>SUM(C33:G33)</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="10" t="s">
+      <c r="H33" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2011,17 +1781,11 @@
       <c r="B34" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="7">
-        <f>SUM(C34:G34)</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="10" t="s">
+      <c r="H34" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2032,17 +1796,11 @@
       <c r="B35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="7">
-        <f>SUM(C35:G35)</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="10" t="s">
+      <c r="H35" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2053,17 +1811,11 @@
       <c r="B36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="7">
-        <f>SUM(C36:G36)</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="10" t="s">
+      <c r="H36" s="3">
+        <f t="shared" ref="H36:H67" si="2">SUM(C36:G36)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2074,17 +1826,11 @@
       <c r="B37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="7">
-        <f>SUM(C37:G37)</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="10" t="s">
+      <c r="H37" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2095,17 +1841,11 @@
       <c r="B38" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="7">
-        <f>SUM(C38:G38)</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="10" t="s">
+      <c r="H38" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2116,17 +1856,11 @@
       <c r="B39" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="7">
-        <f>SUM(C39:G39)</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="10" t="s">
+      <c r="H39" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2137,17 +1871,11 @@
       <c r="B40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="7">
-        <f>SUM(C40:G40)</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="2"/>
-      <c r="J40" s="10" t="s">
+      <c r="H40" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2158,17 +1886,11 @@
       <c r="B41" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="7">
-        <f>SUM(C41:G41)</f>
-        <v>0</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="10" t="s">
+      <c r="H41" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2179,17 +1901,11 @@
       <c r="B42" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="7">
-        <f>SUM(C42:G42)</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="10" t="s">
+      <c r="H42" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2200,17 +1916,11 @@
       <c r="B43" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="7">
-        <f>SUM(C43:G43)</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="2"/>
-      <c r="J43" s="10" t="s">
+      <c r="H43" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2221,17 +1931,11 @@
       <c r="B44" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="7">
-        <f>SUM(C44:G44)</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="2"/>
-      <c r="J44" s="10" t="s">
+      <c r="H44" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2242,17 +1946,11 @@
       <c r="B45" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="7">
-        <f>SUM(C45:G45)</f>
-        <v>0</v>
-      </c>
-      <c r="I45" s="2"/>
-      <c r="J45" s="10" t="s">
+      <c r="H45" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2263,17 +1961,11 @@
       <c r="B46" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="7">
-        <f>SUM(C46:G46)</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="2"/>
-      <c r="J46" s="10" t="s">
+      <c r="H46" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2284,17 +1976,11 @@
       <c r="B47" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="7">
-        <f>SUM(C47:G47)</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="2"/>
-      <c r="J47" s="10" t="s">
+      <c r="H47" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="5" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2305,17 +1991,11 @@
       <c r="B48" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="7">
-        <f>SUM(C48:G48)</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="2"/>
-      <c r="J48" s="10" t="s">
+      <c r="H48" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2326,17 +2006,11 @@
       <c r="B49" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="7">
-        <f>SUM(C49:G49)</f>
-        <v>0</v>
-      </c>
-      <c r="I49" s="2"/>
-      <c r="J49" s="10" t="s">
+      <c r="H49" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2347,17 +2021,11 @@
       <c r="B50" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="7">
-        <f>SUM(C50:G50)</f>
-        <v>0</v>
-      </c>
-      <c r="I50" s="2"/>
-      <c r="J50" s="10" t="s">
+      <c r="H50" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2368,17 +2036,11 @@
       <c r="B51" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="7">
-        <f>SUM(C51:G51)</f>
-        <v>0</v>
-      </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="10" t="s">
+      <c r="H51" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2389,17 +2051,11 @@
       <c r="B52" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="7">
-        <f>SUM(C52:G52)</f>
-        <v>0</v>
-      </c>
-      <c r="I52" s="2"/>
-      <c r="J52" s="10" t="s">
+      <c r="H52" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2410,17 +2066,11 @@
       <c r="B53" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="7">
-        <f>SUM(C53:G53)</f>
-        <v>0</v>
-      </c>
-      <c r="I53" s="2"/>
-      <c r="J53" s="10" t="s">
+      <c r="H53" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2431,17 +2081,11 @@
       <c r="B54" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="7">
-        <f>SUM(C54:G54)</f>
-        <v>0</v>
-      </c>
-      <c r="I54" s="2"/>
-      <c r="J54" s="10" t="s">
+      <c r="H54" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2452,17 +2096,11 @@
       <c r="B55" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="7">
-        <f>SUM(C55:G55)</f>
-        <v>0</v>
-      </c>
-      <c r="I55" s="2"/>
-      <c r="J55" s="10" t="s">
+      <c r="H55" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2473,17 +2111,11 @@
       <c r="B56" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="7">
-        <f>SUM(C56:G56)</f>
-        <v>0</v>
-      </c>
-      <c r="I56" s="2"/>
-      <c r="J56" s="10" t="s">
+      <c r="H56" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="5" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2494,17 +2126,11 @@
       <c r="B57" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="7">
-        <f>SUM(C57:G57)</f>
-        <v>0</v>
-      </c>
-      <c r="I57" s="2"/>
-      <c r="J57" s="10" t="s">
+      <c r="H57" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2515,17 +2141,11 @@
       <c r="B58" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="7">
-        <f>SUM(C58:G58)</f>
-        <v>0</v>
-      </c>
-      <c r="I58" s="2"/>
-      <c r="J58" s="10" t="s">
+      <c r="H58" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2536,17 +2156,11 @@
       <c r="B59" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="7">
-        <f>SUM(C59:G59)</f>
-        <v>0</v>
-      </c>
-      <c r="I59" s="2"/>
-      <c r="J59" s="10" t="s">
+      <c r="H59" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2557,17 +2171,11 @@
       <c r="B60" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="7">
-        <f>SUM(C60:G60)</f>
-        <v>0</v>
-      </c>
-      <c r="I60" s="2"/>
-      <c r="J60" s="10" t="s">
+      <c r="H60" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2578,17 +2186,11 @@
       <c r="B61" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="7">
-        <f>SUM(C61:G61)</f>
-        <v>0</v>
-      </c>
-      <c r="I61" s="2"/>
-      <c r="J61" s="10" t="s">
+      <c r="H61" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2599,17 +2201,11 @@
       <c r="B62" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="7">
-        <f>SUM(C62:G62)</f>
-        <v>0</v>
-      </c>
-      <c r="I62" s="2"/>
-      <c r="J62" s="10" t="s">
+      <c r="H62" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2620,17 +2216,11 @@
       <c r="B63" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="7">
-        <f>SUM(C63:G63)</f>
-        <v>0</v>
-      </c>
-      <c r="I63" s="2"/>
-      <c r="J63" s="10" t="s">
+      <c r="H63" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="5" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2641,17 +2231,11 @@
       <c r="B64" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="7">
-        <f>SUM(C64:G64)</f>
-        <v>0</v>
-      </c>
-      <c r="I64" s="2"/>
-      <c r="J64" s="10" t="s">
+      <c r="H64" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2662,17 +2246,11 @@
       <c r="B65" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="7">
-        <f>SUM(C65:G65)</f>
-        <v>0</v>
-      </c>
-      <c r="I65" s="2"/>
-      <c r="J65" s="10" t="s">
+      <c r="H65" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2683,17 +2261,11 @@
       <c r="B66" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="7">
-        <f>SUM(C66:G66)</f>
-        <v>0</v>
-      </c>
-      <c r="I66" s="2"/>
-      <c r="J66" s="10" t="s">
+      <c r="H66" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="5" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2704,17 +2276,11 @@
       <c r="B67" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="7">
-        <f>SUM(C67:G67)</f>
-        <v>0</v>
-      </c>
-      <c r="I67" s="2"/>
-      <c r="J67" s="10" t="s">
+      <c r="H67" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2725,17 +2291,11 @@
       <c r="B68" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="7">
-        <f>SUM(C68:G68)</f>
-        <v>0</v>
-      </c>
-      <c r="I68" s="2"/>
-      <c r="J68" s="10" t="s">
+      <c r="H68" s="3">
+        <f t="shared" ref="H68:H99" si="3">SUM(C68:G68)</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="5" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2746,17 +2306,11 @@
       <c r="B69" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="7">
-        <f>SUM(C69:G69)</f>
-        <v>0</v>
-      </c>
-      <c r="I69" s="2"/>
-      <c r="J69" s="10" t="s">
+      <c r="H69" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2767,17 +2321,11 @@
       <c r="B70" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="7">
-        <f>SUM(C70:G70)</f>
-        <v>0</v>
-      </c>
-      <c r="I70" s="2"/>
-      <c r="J70" s="10" t="s">
+      <c r="H70" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="5" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2788,17 +2336,11 @@
       <c r="B71" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="7">
-        <f>SUM(C71:G71)</f>
-        <v>0</v>
-      </c>
-      <c r="I71" s="2"/>
-      <c r="J71" s="10" t="s">
+      <c r="H71" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="5" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2809,17 +2351,11 @@
       <c r="B72" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="7">
-        <f>SUM(C72:G72)</f>
-        <v>0</v>
-      </c>
-      <c r="I72" s="2"/>
-      <c r="J72" s="10" t="s">
+      <c r="H72" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2830,17 +2366,11 @@
       <c r="B73" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="7">
-        <f>SUM(C73:G73)</f>
-        <v>0</v>
-      </c>
-      <c r="I73" s="2"/>
-      <c r="J73" s="10" t="s">
+      <c r="H73" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="5" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2851,16 +2381,11 @@
       <c r="B74" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="7">
-        <f>SUM(C74:G74)</f>
-        <v>0</v>
-      </c>
-      <c r="J74" s="11" t="s">
+      <c r="H74" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="6" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2871,16 +2396,11 @@
       <c r="B75" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="7">
-        <f>SUM(C75:G75)</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="11" t="s">
+      <c r="H75" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="6" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2891,16 +2411,11 @@
       <c r="B76" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="7">
-        <f>SUM(C76:G76)</f>
-        <v>0</v>
-      </c>
-      <c r="J76" s="11" t="s">
+      <c r="H76" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2911,16 +2426,11 @@
       <c r="B77" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="7">
-        <f>SUM(C77:G77)</f>
-        <v>0</v>
-      </c>
-      <c r="J77" s="11" t="s">
+      <c r="H77" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="6" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2931,16 +2441,11 @@
       <c r="B78" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="7">
-        <f>SUM(C78:G78)</f>
-        <v>0</v>
-      </c>
-      <c r="J78" s="11" t="s">
+      <c r="H78" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="6" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2951,16 +2456,11 @@
       <c r="B79" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="7">
-        <f>SUM(C79:G79)</f>
-        <v>0</v>
-      </c>
-      <c r="J79" s="11" t="s">
+      <c r="H79" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="6" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2971,16 +2471,11 @@
       <c r="B80" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="7">
-        <f>SUM(C80:G80)</f>
-        <v>0</v>
-      </c>
-      <c r="J80" s="11" t="s">
+      <c r="H80" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="6" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2991,16 +2486,11 @@
       <c r="B81" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="7">
-        <f>SUM(C81:G81)</f>
-        <v>0</v>
-      </c>
-      <c r="J81" s="11" t="s">
+      <c r="H81" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="6" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3011,16 +2501,11 @@
       <c r="B82" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="7">
-        <f>SUM(C82:G82)</f>
-        <v>0</v>
-      </c>
-      <c r="J82" s="11" t="s">
+      <c r="H82" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3031,16 +2516,11 @@
       <c r="B83" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="7">
-        <f>SUM(C83:G83)</f>
-        <v>0</v>
-      </c>
-      <c r="J83" s="11" t="s">
+      <c r="H83" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="6" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3051,16 +2531,11 @@
       <c r="B84" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="7">
-        <f>SUM(C84:G84)</f>
-        <v>0</v>
-      </c>
-      <c r="J84" s="11" t="s">
+      <c r="H84" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="6" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3071,16 +2546,11 @@
       <c r="B85" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="7">
-        <f>SUM(C85:G85)</f>
-        <v>0</v>
-      </c>
-      <c r="J85" s="11" t="s">
+      <c r="H85" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3091,16 +2561,11 @@
       <c r="B86" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="7">
-        <f>SUM(C86:G86)</f>
-        <v>0</v>
-      </c>
-      <c r="J86" s="11" t="s">
+      <c r="H86" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3111,16 +2576,11 @@
       <c r="B87" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="7">
-        <f>SUM(C87:G87)</f>
-        <v>0</v>
-      </c>
-      <c r="J87" s="11" t="s">
+      <c r="H87" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3131,16 +2591,11 @@
       <c r="B88" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="7">
-        <f>SUM(C88:G88)</f>
-        <v>0</v>
-      </c>
-      <c r="J88" s="11" t="s">
+      <c r="H88" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="6" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3151,16 +2606,11 @@
       <c r="B89" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="7">
-        <f>SUM(C89:G89)</f>
-        <v>0</v>
-      </c>
-      <c r="J89" s="11" t="s">
+      <c r="H89" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="6" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3171,16 +2621,11 @@
       <c r="B90" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="7">
-        <f>SUM(C90:G90)</f>
-        <v>0</v>
-      </c>
-      <c r="J90" s="11" t="s">
+      <c r="H90" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="6" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3191,16 +2636,11 @@
       <c r="B91" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="7">
-        <f>SUM(C91:G91)</f>
-        <v>0</v>
-      </c>
-      <c r="J91" s="11" t="s">
+      <c r="H91" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="6" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3211,16 +2651,11 @@
       <c r="B92" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="7">
-        <f>SUM(C92:G92)</f>
-        <v>0</v>
-      </c>
-      <c r="J92" s="11" t="s">
+      <c r="H92" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3231,16 +2666,11 @@
       <c r="B93" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="7">
-        <f>SUM(C93:G93)</f>
-        <v>0</v>
-      </c>
-      <c r="J93" s="11" t="s">
+      <c r="H93" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="6" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3251,16 +2681,11 @@
       <c r="B94" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="7">
-        <f>SUM(C94:G94)</f>
-        <v>0</v>
-      </c>
-      <c r="J94" s="11" t="s">
+      <c r="H94" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="6" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3271,16 +2696,11 @@
       <c r="B95" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="7">
-        <f>SUM(C95:G95)</f>
-        <v>0</v>
-      </c>
-      <c r="J95" s="11" t="s">
+      <c r="H95" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="6" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3291,16 +2711,11 @@
       <c r="B96" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="7">
-        <f>SUM(C96:G96)</f>
-        <v>0</v>
-      </c>
-      <c r="J96" s="11" t="s">
+      <c r="H96" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="6" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3311,16 +2726,11 @@
       <c r="B97" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="7">
-        <f>SUM(C97:G97)</f>
-        <v>0</v>
-      </c>
-      <c r="J97" s="11" t="s">
+      <c r="H97" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="6" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3331,16 +2741,11 @@
       <c r="B98" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="7">
-        <f>SUM(C98:G98)</f>
-        <v>0</v>
-      </c>
-      <c r="J98" s="11" t="s">
+      <c r="H98" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3351,16 +2756,11 @@
       <c r="B99" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="7">
-        <f>SUM(C99:G99)</f>
-        <v>0</v>
-      </c>
-      <c r="J99" s="11" t="s">
+      <c r="H99" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="6" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3371,16 +2771,11 @@
       <c r="B100" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="7">
-        <f>SUM(C100:G100)</f>
-        <v>0</v>
-      </c>
-      <c r="J100" s="11" t="s">
+      <c r="H100" s="3">
+        <f t="shared" ref="H100:H131" si="4">SUM(C100:G100)</f>
+        <v>0</v>
+      </c>
+      <c r="J100" s="6" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3391,16 +2786,11 @@
       <c r="B101" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="7">
-        <f>SUM(C101:G101)</f>
-        <v>0</v>
-      </c>
-      <c r="J101" s="11" t="s">
+      <c r="H101" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="6" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3411,16 +2801,11 @@
       <c r="B102" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="7">
-        <f>SUM(C102:G102)</f>
-        <v>0</v>
-      </c>
-      <c r="J102" s="11" t="s">
+      <c r="H102" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="6" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3431,16 +2816,11 @@
       <c r="B103" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="7">
-        <f>SUM(C103:G103)</f>
-        <v>0</v>
-      </c>
-      <c r="J103" s="11" t="s">
+      <c r="H103" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="6" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3451,16 +2831,11 @@
       <c r="B104" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="7">
-        <f>SUM(C104:G104)</f>
-        <v>0</v>
-      </c>
-      <c r="J104" s="11" t="s">
+      <c r="H104" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="6" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3471,16 +2846,11 @@
       <c r="B105" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="7">
-        <f>SUM(C105:G105)</f>
-        <v>0</v>
-      </c>
-      <c r="J105" s="11" t="s">
+      <c r="H105" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3491,16 +2861,11 @@
       <c r="B106" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="7">
-        <f>SUM(C106:G106)</f>
-        <v>0</v>
-      </c>
-      <c r="J106" s="11" t="s">
+      <c r="H106" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3511,16 +2876,11 @@
       <c r="B107" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="7">
-        <f>SUM(C107:G107)</f>
-        <v>0</v>
-      </c>
-      <c r="J107" s="11" t="s">
+      <c r="H107" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="6" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3531,16 +2891,11 @@
       <c r="B108" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="7">
-        <f>SUM(C108:G108)</f>
-        <v>0</v>
-      </c>
-      <c r="J108" s="11" t="s">
+      <c r="H108" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="6" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3551,16 +2906,11 @@
       <c r="B109" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="7">
-        <f>SUM(C109:G109)</f>
-        <v>0</v>
-      </c>
-      <c r="J109" s="11" t="s">
+      <c r="H109" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="6" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3571,16 +2921,11 @@
       <c r="B110" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="7">
-        <f>SUM(C110:G110)</f>
-        <v>0</v>
-      </c>
-      <c r="J110" s="11" t="s">
+      <c r="H110" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3591,16 +2936,11 @@
       <c r="B111" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="7">
-        <f>SUM(C111:G111)</f>
-        <v>0</v>
-      </c>
-      <c r="J111" s="11" t="s">
+      <c r="H111" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3611,16 +2951,11 @@
       <c r="B112" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="7">
-        <f>SUM(C112:G112)</f>
-        <v>0</v>
-      </c>
-      <c r="J112" s="11" t="s">
+      <c r="H112" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="6" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3631,16 +2966,11 @@
       <c r="B113" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="7">
-        <f>SUM(C113:G113)</f>
-        <v>0</v>
-      </c>
-      <c r="J113" s="11" t="s">
+      <c r="H113" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3651,16 +2981,11 @@
       <c r="B114" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="7">
-        <f>SUM(C114:G114)</f>
-        <v>0</v>
-      </c>
-      <c r="J114" s="11" t="s">
+      <c r="H114" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3671,16 +2996,11 @@
       <c r="B115" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="7">
-        <f>SUM(C115:G115)</f>
-        <v>0</v>
-      </c>
-      <c r="J115" s="11" t="s">
+      <c r="H115" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="6" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3691,16 +3011,11 @@
       <c r="B116" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="7">
-        <f>SUM(C116:G116)</f>
-        <v>0</v>
-      </c>
-      <c r="J116" s="11" t="s">
+      <c r="H116" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="6" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3711,16 +3026,11 @@
       <c r="B117" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="7">
-        <f>SUM(C117:G117)</f>
-        <v>0</v>
-      </c>
-      <c r="J117" s="11" t="s">
+      <c r="H117" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="6" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3731,16 +3041,11 @@
       <c r="B118" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="7">
-        <f>SUM(C118:G118)</f>
-        <v>0</v>
-      </c>
-      <c r="J118" s="11" t="s">
+      <c r="H118" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="6" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3751,16 +3056,11 @@
       <c r="B119" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="7">
-        <f>SUM(C119:G119)</f>
-        <v>0</v>
-      </c>
-      <c r="J119" s="11" t="s">
+      <c r="H119" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J119" s="6" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3771,16 +3071,11 @@
       <c r="B120" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="7">
-        <f>SUM(C120:G120)</f>
-        <v>0</v>
-      </c>
-      <c r="J120" s="11" t="s">
+      <c r="H120" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J120" s="6" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3791,16 +3086,11 @@
       <c r="B121" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="7">
-        <f>SUM(C121:G121)</f>
-        <v>0</v>
-      </c>
-      <c r="J121" s="11" t="s">
+      <c r="H121" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J121" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3811,16 +3101,11 @@
       <c r="B122" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="7">
-        <f>SUM(C122:G122)</f>
-        <v>0</v>
-      </c>
-      <c r="J122" s="11" t="s">
+      <c r="H122" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J122" s="6" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3831,16 +3116,11 @@
       <c r="B123" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="7">
-        <f>SUM(C123:G123)</f>
-        <v>0</v>
-      </c>
-      <c r="J123" s="11" t="s">
+      <c r="H123" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="6" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3851,16 +3131,11 @@
       <c r="B124" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="7">
-        <f>SUM(C124:G124)</f>
-        <v>0</v>
-      </c>
-      <c r="J124" s="11" t="s">
+      <c r="H124" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="6" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3871,16 +3146,11 @@
       <c r="B125" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="7">
-        <f>SUM(C125:G125)</f>
-        <v>0</v>
-      </c>
-      <c r="J125" s="11" t="s">
+      <c r="H125" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="6" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3891,16 +3161,11 @@
       <c r="B126" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="7">
-        <f>SUM(C126:G126)</f>
-        <v>0</v>
-      </c>
-      <c r="J126" s="11" t="s">
+      <c r="H126" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J126" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3911,16 +3176,11 @@
       <c r="B127" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="7">
-        <f>SUM(C127:G127)</f>
-        <v>0</v>
-      </c>
-      <c r="J127" s="11" t="s">
+      <c r="H127" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J127" s="6" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3931,16 +3191,11 @@
       <c r="B128" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="7">
-        <f>SUM(C128:G128)</f>
-        <v>0</v>
-      </c>
-      <c r="J128" s="11" t="s">
+      <c r="H128" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J128" s="6" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3951,16 +3206,11 @@
       <c r="B129" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="7">
-        <f>SUM(C129:G129)</f>
-        <v>0</v>
-      </c>
-      <c r="J129" s="11" t="s">
+      <c r="H129" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J129" s="6" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3971,16 +3221,11 @@
       <c r="B130" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="7">
-        <f>SUM(C130:G130)</f>
-        <v>0</v>
-      </c>
-      <c r="J130" s="11" t="s">
+      <c r="H130" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J130" s="6" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3991,16 +3236,11 @@
       <c r="B131" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="7">
-        <f>SUM(C131:G131)</f>
-        <v>0</v>
-      </c>
-      <c r="J131" s="11" t="s">
+      <c r="H131" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J131" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4011,16 +3251,11 @@
       <c r="B132" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="7">
-        <f>SUM(C132:G132)</f>
-        <v>0</v>
-      </c>
-      <c r="J132" s="11" t="s">
+      <c r="H132" s="3">
+        <f t="shared" ref="H132:H163" si="5">SUM(C132:G132)</f>
+        <v>0</v>
+      </c>
+      <c r="J132" s="6" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4031,16 +3266,11 @@
       <c r="B133" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="7">
-        <f>SUM(C133:G133)</f>
-        <v>0</v>
-      </c>
-      <c r="J133" s="11" t="s">
+      <c r="H133" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J133" s="6" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4051,16 +3281,11 @@
       <c r="B134" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="7">
-        <f>SUM(C134:G134)</f>
-        <v>0</v>
-      </c>
-      <c r="J134" s="11" t="s">
+      <c r="H134" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J134" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4071,16 +3296,11 @@
       <c r="B135" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="8"/>
-      <c r="H135" s="7">
-        <f>SUM(C135:G135)</f>
-        <v>0</v>
-      </c>
-      <c r="J135" s="11" t="s">
+      <c r="H135" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J135" s="6" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4091,16 +3311,11 @@
       <c r="B136" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="7">
-        <f>SUM(C136:G136)</f>
-        <v>0</v>
-      </c>
-      <c r="J136" s="11" t="s">
+      <c r="H136" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J136" s="6" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4111,16 +3326,11 @@
       <c r="B137" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="8"/>
-      <c r="H137" s="7">
-        <f>SUM(C137:G137)</f>
-        <v>0</v>
-      </c>
-      <c r="J137" s="11" t="s">
+      <c r="H137" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J137" s="6" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4131,16 +3341,11 @@
       <c r="B138" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C138" s="8"/>
-      <c r="D138" s="8"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8"/>
-      <c r="G138" s="8"/>
-      <c r="H138" s="7">
-        <f>SUM(C138:G138)</f>
-        <v>0</v>
-      </c>
-      <c r="J138" s="11" t="s">
+      <c r="H138" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J138" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4151,16 +3356,11 @@
       <c r="B139" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="7">
-        <f>SUM(C139:G139)</f>
-        <v>0</v>
-      </c>
-      <c r="J139" s="11" t="s">
+      <c r="H139" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J139" s="6" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4171,16 +3371,11 @@
       <c r="B140" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="7">
-        <f>SUM(C140:G140)</f>
-        <v>0</v>
-      </c>
-      <c r="J140" s="11" t="s">
+      <c r="H140" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J140" s="6" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4191,16 +3386,11 @@
       <c r="B141" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="8"/>
-      <c r="H141" s="7">
-        <f>SUM(C141:G141)</f>
-        <v>0</v>
-      </c>
-      <c r="J141" s="11" t="s">
+      <c r="H141" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J141" s="6" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4211,16 +3401,11 @@
       <c r="B142" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="7">
-        <f>SUM(C142:G142)</f>
-        <v>0</v>
-      </c>
-      <c r="J142" s="11" t="s">
+      <c r="H142" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J142" s="6" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4231,16 +3416,11 @@
       <c r="B143" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="7">
-        <f>SUM(C143:G143)</f>
-        <v>0</v>
-      </c>
-      <c r="J143" s="11" t="s">
+      <c r="H143" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J143" s="6" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4251,16 +3431,11 @@
       <c r="B144" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="8"/>
-      <c r="H144" s="7">
-        <f>SUM(C144:G144)</f>
-        <v>0</v>
-      </c>
-      <c r="J144" s="11" t="s">
+      <c r="H144" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J144" s="6" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4271,16 +3446,11 @@
       <c r="B145" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="8"/>
-      <c r="H145" s="7">
-        <f>SUM(C145:G145)</f>
-        <v>0</v>
-      </c>
-      <c r="J145" s="11" t="s">
+      <c r="H145" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J145" s="6" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4291,16 +3461,11 @@
       <c r="B146" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
-      <c r="H146" s="7">
-        <f>SUM(C146:G146)</f>
-        <v>0</v>
-      </c>
-      <c r="J146" s="11" t="s">
+      <c r="H146" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J146" s="6" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4311,16 +3476,11 @@
       <c r="B147" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="8"/>
-      <c r="H147" s="7">
-        <f>SUM(C147:G147)</f>
-        <v>0</v>
-      </c>
-      <c r="J147" s="11" t="s">
+      <c r="H147" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J147" s="6" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4331,16 +3491,11 @@
       <c r="B148" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
-      <c r="H148" s="7">
-        <f>SUM(C148:G148)</f>
-        <v>0</v>
-      </c>
-      <c r="J148" s="11" t="s">
+      <c r="H148" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J148" s="6" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4351,16 +3506,11 @@
       <c r="B149" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
-      <c r="H149" s="7">
-        <f>SUM(C149:G149)</f>
-        <v>0</v>
-      </c>
-      <c r="J149" s="11" t="s">
+      <c r="H149" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J149" s="6" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4371,16 +3521,11 @@
       <c r="B150" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8"/>
-      <c r="G150" s="8"/>
-      <c r="H150" s="7">
-        <f>SUM(C150:G150)</f>
-        <v>0</v>
-      </c>
-      <c r="J150" s="11" t="s">
+      <c r="H150" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J150" s="6" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4391,16 +3536,11 @@
       <c r="B151" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
-      <c r="H151" s="7">
-        <f>SUM(C151:G151)</f>
-        <v>0</v>
-      </c>
-      <c r="J151" s="11" t="s">
+      <c r="H151" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J151" s="6" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4411,16 +3551,11 @@
       <c r="B152" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
-      <c r="E152" s="8"/>
-      <c r="F152" s="8"/>
-      <c r="G152" s="8"/>
-      <c r="H152" s="7">
-        <f>SUM(C152:G152)</f>
-        <v>0</v>
-      </c>
-      <c r="J152" s="11" t="s">
+      <c r="H152" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J152" s="6" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4431,16 +3566,11 @@
       <c r="B153" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
-      <c r="G153" s="8"/>
-      <c r="H153" s="7">
-        <f>SUM(C153:G153)</f>
-        <v>0</v>
-      </c>
-      <c r="J153" s="11" t="s">
+      <c r="H153" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J153" s="6" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4451,16 +3581,11 @@
       <c r="B154" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8"/>
-      <c r="G154" s="8"/>
-      <c r="H154" s="7">
-        <f>SUM(C154:G154)</f>
-        <v>0</v>
-      </c>
-      <c r="J154" s="11" t="s">
+      <c r="H154" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J154" s="6" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4471,16 +3596,11 @@
       <c r="B155" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8"/>
-      <c r="G155" s="8"/>
-      <c r="H155" s="7">
-        <f>SUM(C155:G155)</f>
-        <v>0</v>
-      </c>
-      <c r="J155" s="11" t="s">
+      <c r="H155" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J155" s="6" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4491,16 +3611,11 @@
       <c r="B156" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C156" s="8"/>
-      <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
-      <c r="F156" s="8"/>
-      <c r="G156" s="8"/>
-      <c r="H156" s="7">
-        <f>SUM(C156:G156)</f>
-        <v>0</v>
-      </c>
-      <c r="J156" s="11" t="s">
+      <c r="H156" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J156" s="6" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4511,16 +3626,11 @@
       <c r="B157" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
-      <c r="F157" s="8"/>
-      <c r="G157" s="8"/>
-      <c r="H157" s="7">
-        <f>SUM(C157:G157)</f>
-        <v>0</v>
-      </c>
-      <c r="J157" s="11" t="s">
+      <c r="H157" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J157" s="6" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4531,16 +3641,11 @@
       <c r="B158" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C158" s="8"/>
-      <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8"/>
-      <c r="G158" s="8"/>
-      <c r="H158" s="7">
-        <f>SUM(C158:G158)</f>
-        <v>0</v>
-      </c>
-      <c r="J158" s="11" t="s">
+      <c r="H158" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J158" s="6" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4551,16 +3656,11 @@
       <c r="B159" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C159" s="8"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8"/>
-      <c r="H159" s="7">
-        <f>SUM(C159:G159)</f>
-        <v>0</v>
-      </c>
-      <c r="J159" s="11" t="s">
+      <c r="H159" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J159" s="6" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4571,16 +3671,11 @@
       <c r="B160" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C160" s="8"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
-      <c r="H160" s="7">
-        <f>SUM(C160:G160)</f>
-        <v>0</v>
-      </c>
-      <c r="J160" s="11" t="s">
+      <c r="H160" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J160" s="6" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4591,16 +3686,11 @@
       <c r="B161" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
-      <c r="F161" s="8"/>
-      <c r="G161" s="8"/>
-      <c r="H161" s="7">
-        <f>SUM(C161:G161)</f>
-        <v>0</v>
-      </c>
-      <c r="J161" s="11" t="s">
+      <c r="H161" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J161" s="6" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4611,16 +3701,11 @@
       <c r="B162" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
-      <c r="H162" s="7">
-        <f>SUM(C162:G162)</f>
-        <v>0</v>
-      </c>
-      <c r="J162" s="11" t="s">
+      <c r="H162" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J162" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4631,16 +3716,11 @@
       <c r="B163" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8"/>
-      <c r="F163" s="8"/>
-      <c r="G163" s="8"/>
-      <c r="H163" s="7">
-        <f>SUM(C163:G163)</f>
-        <v>0</v>
-      </c>
-      <c r="J163" s="11" t="s">
+      <c r="H163" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J163" s="6" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4651,16 +3731,11 @@
       <c r="B164" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
-      <c r="H164" s="7">
-        <f>SUM(C164:G164)</f>
-        <v>0</v>
-      </c>
-      <c r="J164" s="11" t="s">
+      <c r="H164" s="3">
+        <f t="shared" ref="H164:H189" si="6">SUM(C164:G164)</f>
+        <v>0</v>
+      </c>
+      <c r="J164" s="6" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4671,16 +3746,11 @@
       <c r="B165" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="8"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
-      <c r="H165" s="7">
-        <f>SUM(C165:G165)</f>
-        <v>0</v>
-      </c>
-      <c r="J165" s="11" t="s">
+      <c r="H165" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J165" s="6" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4691,16 +3761,11 @@
       <c r="B166" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C166" s="8"/>
-      <c r="D166" s="8"/>
-      <c r="E166" s="8"/>
-      <c r="F166" s="8"/>
-      <c r="G166" s="8"/>
-      <c r="H166" s="7">
-        <f>SUM(C166:G166)</f>
-        <v>0</v>
-      </c>
-      <c r="J166" s="11" t="s">
+      <c r="H166" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J166" s="6" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4711,16 +3776,11 @@
       <c r="B167" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C167" s="8"/>
-      <c r="D167" s="8"/>
-      <c r="E167" s="8"/>
-      <c r="F167" s="8"/>
-      <c r="G167" s="8"/>
-      <c r="H167" s="7">
-        <f>SUM(C167:G167)</f>
-        <v>0</v>
-      </c>
-      <c r="J167" s="11" t="s">
+      <c r="H167" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J167" s="6" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4731,16 +3791,11 @@
       <c r="B168" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C168" s="8"/>
-      <c r="D168" s="8"/>
-      <c r="E168" s="8"/>
-      <c r="F168" s="8"/>
-      <c r="G168" s="8"/>
-      <c r="H168" s="7">
-        <f>SUM(C168:G168)</f>
-        <v>0</v>
-      </c>
-      <c r="J168" s="11" t="s">
+      <c r="H168" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J168" s="6" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4751,16 +3806,11 @@
       <c r="B169" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C169" s="8"/>
-      <c r="D169" s="8"/>
-      <c r="E169" s="8"/>
-      <c r="F169" s="8"/>
-      <c r="G169" s="8"/>
-      <c r="H169" s="7">
-        <f>SUM(C169:G169)</f>
-        <v>0</v>
-      </c>
-      <c r="J169" s="11" t="s">
+      <c r="H169" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J169" s="6" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4771,16 +3821,11 @@
       <c r="B170" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C170" s="8"/>
-      <c r="D170" s="8"/>
-      <c r="E170" s="8"/>
-      <c r="F170" s="8"/>
-      <c r="G170" s="8"/>
-      <c r="H170" s="7">
-        <f>SUM(C170:G170)</f>
-        <v>0</v>
-      </c>
-      <c r="J170" s="11" t="s">
+      <c r="H170" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J170" s="6" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4791,16 +3836,11 @@
       <c r="B171" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
-      <c r="F171" s="8"/>
-      <c r="G171" s="8"/>
-      <c r="H171" s="7">
-        <f>SUM(C171:G171)</f>
-        <v>0</v>
-      </c>
-      <c r="J171" s="11" t="s">
+      <c r="H171" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J171" s="6" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4811,16 +3851,11 @@
       <c r="B172" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C172" s="8"/>
-      <c r="D172" s="8"/>
-      <c r="E172" s="8"/>
-      <c r="F172" s="8"/>
-      <c r="G172" s="8"/>
-      <c r="H172" s="7">
-        <f>SUM(C172:G172)</f>
-        <v>0</v>
-      </c>
-      <c r="J172" s="11" t="s">
+      <c r="H172" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J172" s="6" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4831,16 +3866,11 @@
       <c r="B173" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C173" s="8"/>
-      <c r="D173" s="8"/>
-      <c r="E173" s="8"/>
-      <c r="F173" s="8"/>
-      <c r="G173" s="8"/>
-      <c r="H173" s="7">
-        <f>SUM(C173:G173)</f>
-        <v>0</v>
-      </c>
-      <c r="J173" s="11" t="s">
+      <c r="H173" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J173" s="6" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4851,16 +3881,11 @@
       <c r="B174" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C174" s="8"/>
-      <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
-      <c r="F174" s="8"/>
-      <c r="G174" s="8"/>
-      <c r="H174" s="7">
-        <f>SUM(C174:G174)</f>
-        <v>0</v>
-      </c>
-      <c r="J174" s="11" t="s">
+      <c r="H174" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J174" s="6" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4871,16 +3896,11 @@
       <c r="B175" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C175" s="8"/>
-      <c r="D175" s="8"/>
-      <c r="E175" s="8"/>
-      <c r="F175" s="8"/>
-      <c r="G175" s="8"/>
-      <c r="H175" s="7">
-        <f>SUM(C175:G175)</f>
-        <v>0</v>
-      </c>
-      <c r="J175" s="11" t="s">
+      <c r="H175" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J175" s="6" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4891,16 +3911,11 @@
       <c r="B176" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
-      <c r="F176" s="8"/>
-      <c r="G176" s="8"/>
-      <c r="H176" s="7">
-        <f>SUM(C176:G176)</f>
-        <v>0</v>
-      </c>
-      <c r="J176" s="11" t="s">
+      <c r="H176" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J176" s="6" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4911,16 +3926,11 @@
       <c r="B177" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="8"/>
-      <c r="F177" s="8"/>
-      <c r="G177" s="8"/>
-      <c r="H177" s="7">
-        <f>SUM(C177:G177)</f>
-        <v>0</v>
-      </c>
-      <c r="J177" s="11" t="s">
+      <c r="H177" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J177" s="6" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4931,16 +3941,11 @@
       <c r="B178" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C178" s="8"/>
-      <c r="D178" s="8"/>
-      <c r="E178" s="8"/>
-      <c r="F178" s="8"/>
-      <c r="G178" s="8"/>
-      <c r="H178" s="7">
-        <f>SUM(C178:G178)</f>
-        <v>0</v>
-      </c>
-      <c r="J178" s="11" t="s">
+      <c r="H178" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J178" s="6" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4951,16 +3956,11 @@
       <c r="B179" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C179" s="8"/>
-      <c r="D179" s="8"/>
-      <c r="E179" s="8"/>
-      <c r="F179" s="8"/>
-      <c r="G179" s="8"/>
-      <c r="H179" s="7">
-        <f>SUM(C179:G179)</f>
-        <v>0</v>
-      </c>
-      <c r="J179" s="11" t="s">
+      <c r="H179" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J179" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4971,16 +3971,11 @@
       <c r="B180" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C180" s="8"/>
-      <c r="D180" s="8"/>
-      <c r="E180" s="8"/>
-      <c r="F180" s="8"/>
-      <c r="G180" s="8"/>
-      <c r="H180" s="7">
-        <f>SUM(C180:G180)</f>
-        <v>0</v>
-      </c>
-      <c r="J180" s="11" t="s">
+      <c r="H180" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J180" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4991,16 +3986,11 @@
       <c r="B181" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C181" s="8"/>
-      <c r="D181" s="8"/>
-      <c r="E181" s="8"/>
-      <c r="F181" s="8"/>
-      <c r="G181" s="8"/>
-      <c r="H181" s="7">
-        <f>SUM(C181:G181)</f>
-        <v>0</v>
-      </c>
-      <c r="J181" s="11" t="s">
+      <c r="H181" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J181" s="6" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5011,16 +4001,11 @@
       <c r="B182" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C182" s="8"/>
-      <c r="D182" s="8"/>
-      <c r="E182" s="8"/>
-      <c r="F182" s="8"/>
-      <c r="G182" s="8"/>
-      <c r="H182" s="7">
-        <f>SUM(C182:G182)</f>
-        <v>0</v>
-      </c>
-      <c r="J182" s="11" t="s">
+      <c r="H182" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J182" s="6" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5031,16 +4016,11 @@
       <c r="B183" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C183" s="8"/>
-      <c r="D183" s="8"/>
-      <c r="E183" s="8"/>
-      <c r="F183" s="8"/>
-      <c r="G183" s="8"/>
-      <c r="H183" s="7">
-        <f>SUM(C183:G183)</f>
-        <v>0</v>
-      </c>
-      <c r="J183" s="11" t="s">
+      <c r="H183" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J183" s="6" t="s">
         <v>194</v>
       </c>
     </row>
@@ -5051,16 +4031,11 @@
       <c r="B184" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C184" s="8"/>
-      <c r="D184" s="8"/>
-      <c r="E184" s="8"/>
-      <c r="F184" s="8"/>
-      <c r="G184" s="8"/>
-      <c r="H184" s="7">
-        <f>SUM(C184:G184)</f>
-        <v>0</v>
-      </c>
-      <c r="J184" s="11" t="s">
+      <c r="H184" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J184" s="6" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5071,16 +4046,11 @@
       <c r="B185" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C185" s="8"/>
-      <c r="D185" s="8"/>
-      <c r="E185" s="8"/>
-      <c r="F185" s="8"/>
-      <c r="G185" s="8"/>
-      <c r="H185" s="7">
-        <f>SUM(C185:G185)</f>
-        <v>0</v>
-      </c>
-      <c r="J185" s="11" t="s">
+      <c r="H185" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J185" s="6" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5091,16 +4061,11 @@
       <c r="B186" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C186" s="8"/>
-      <c r="D186" s="8"/>
-      <c r="E186" s="8"/>
-      <c r="F186" s="8"/>
-      <c r="G186" s="8"/>
-      <c r="H186" s="7">
-        <f>SUM(C186:G186)</f>
-        <v>0</v>
-      </c>
-      <c r="J186" s="11" t="s">
+      <c r="H186" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J186" s="6" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5111,16 +4076,11 @@
       <c r="B187" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C187" s="8"/>
-      <c r="D187" s="8"/>
-      <c r="E187" s="8"/>
-      <c r="F187" s="8"/>
-      <c r="G187" s="8"/>
-      <c r="H187" s="7">
-        <f>SUM(C187:G187)</f>
-        <v>0</v>
-      </c>
-      <c r="J187" s="11" t="s">
+      <c r="H187" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J187" s="6" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5131,16 +4091,11 @@
       <c r="B188" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C188" s="8"/>
-      <c r="D188" s="8"/>
-      <c r="E188" s="8"/>
-      <c r="F188" s="8"/>
-      <c r="G188" s="8"/>
-      <c r="H188" s="7">
-        <f>SUM(C188:G188)</f>
-        <v>0</v>
-      </c>
-      <c r="J188" s="11" t="s">
+      <c r="H188" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J188" s="6" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5151,16 +4106,11 @@
       <c r="B189" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C189" s="8"/>
-      <c r="D189" s="8"/>
-      <c r="E189" s="8"/>
-      <c r="F189" s="8"/>
-      <c r="G189" s="8"/>
-      <c r="H189" s="7">
-        <f>SUM(C189:G189)</f>
-        <v>0</v>
-      </c>
-      <c r="J189" s="11" t="s">
+      <c r="H189" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J189" s="6" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5171,16 +4121,11 @@
       <c r="B190" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C190" s="8"/>
-      <c r="D190" s="8"/>
-      <c r="E190" s="8"/>
-      <c r="F190" s="8"/>
-      <c r="G190" s="8"/>
-      <c r="H190" s="7">
-        <f t="shared" ref="H190:H214" si="0">SUM(C190:G190)</f>
-        <v>0</v>
-      </c>
-      <c r="J190" s="11" t="s">
+      <c r="H190" s="3">
+        <f t="shared" ref="H190:H214" si="7">SUM(C190:G190)</f>
+        <v>0</v>
+      </c>
+      <c r="J190" s="6" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5191,16 +4136,11 @@
       <c r="B191" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C191" s="8"/>
-      <c r="D191" s="8"/>
-      <c r="E191" s="8"/>
-      <c r="F191" s="8"/>
-      <c r="G191" s="8"/>
-      <c r="H191" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J191" s="11" t="s">
+      <c r="H191" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J191" s="6" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5211,16 +4151,11 @@
       <c r="B192" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C192" s="8"/>
-      <c r="D192" s="8"/>
-      <c r="E192" s="8"/>
-      <c r="F192" s="8"/>
-      <c r="G192" s="8"/>
-      <c r="H192" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J192" s="11" t="s">
+      <c r="H192" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J192" s="6" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5231,16 +4166,11 @@
       <c r="B193" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C193" s="8"/>
-      <c r="D193" s="8"/>
-      <c r="E193" s="8"/>
-      <c r="F193" s="8"/>
-      <c r="G193" s="8"/>
-      <c r="H193" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J193" s="11" t="s">
+      <c r="H193" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J193" s="6" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5251,16 +4181,11 @@
       <c r="B194" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C194" s="8"/>
-      <c r="D194" s="8"/>
-      <c r="E194" s="8"/>
-      <c r="F194" s="8"/>
-      <c r="G194" s="8"/>
-      <c r="H194" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J194" s="11" t="s">
+      <c r="H194" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J194" s="6" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5271,16 +4196,11 @@
       <c r="B195" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C195" s="8"/>
-      <c r="D195" s="8"/>
-      <c r="E195" s="8"/>
-      <c r="F195" s="8"/>
-      <c r="G195" s="8"/>
-      <c r="H195" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J195" s="11" t="s">
+      <c r="H195" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J195" s="6" t="s">
         <v>221</v>
       </c>
     </row>
@@ -5291,16 +4211,11 @@
       <c r="B196" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C196" s="8"/>
-      <c r="D196" s="8"/>
-      <c r="E196" s="8"/>
-      <c r="F196" s="8"/>
-      <c r="G196" s="8"/>
-      <c r="H196" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J196" s="11" t="s">
+      <c r="H196" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J196" s="6" t="s">
         <v>220</v>
       </c>
     </row>
@@ -5311,16 +4226,11 @@
       <c r="B197" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C197" s="8"/>
-      <c r="D197" s="8"/>
-      <c r="E197" s="8"/>
-      <c r="F197" s="8"/>
-      <c r="G197" s="8"/>
-      <c r="H197" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J197" s="11" t="s">
+      <c r="H197" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J197" s="6" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5331,16 +4241,11 @@
       <c r="B198" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C198" s="8"/>
-      <c r="D198" s="8"/>
-      <c r="E198" s="8"/>
-      <c r="F198" s="8"/>
-      <c r="G198" s="8"/>
-      <c r="H198" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J198" s="11" t="s">
+      <c r="H198" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J198" s="6" t="s">
         <v>218</v>
       </c>
     </row>
@@ -5351,16 +4256,11 @@
       <c r="B199" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C199" s="8"/>
-      <c r="D199" s="8"/>
-      <c r="E199" s="8"/>
-      <c r="F199" s="8"/>
-      <c r="G199" s="8"/>
-      <c r="H199" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J199" s="11" t="s">
+      <c r="H199" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J199" s="6" t="s">
         <v>217</v>
       </c>
     </row>
@@ -5371,16 +4271,11 @@
       <c r="B200" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C200" s="8"/>
-      <c r="D200" s="8"/>
-      <c r="E200" s="8"/>
-      <c r="F200" s="8"/>
-      <c r="G200" s="8"/>
-      <c r="H200" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J200" s="11" t="s">
+      <c r="H200" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J200" s="6" t="s">
         <v>216</v>
       </c>
     </row>
@@ -5391,16 +4286,11 @@
       <c r="B201" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C201" s="8"/>
-      <c r="D201" s="8"/>
-      <c r="E201" s="8"/>
-      <c r="F201" s="8"/>
-      <c r="G201" s="8"/>
-      <c r="H201" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J201" s="11" t="s">
+      <c r="H201" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J201" s="6" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5411,16 +4301,11 @@
       <c r="B202" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C202" s="8"/>
-      <c r="D202" s="8"/>
-      <c r="E202" s="8"/>
-      <c r="F202" s="8"/>
-      <c r="G202" s="8"/>
-      <c r="H202" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J202" s="11" t="s">
+      <c r="H202" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J202" s="6" t="s">
         <v>214</v>
       </c>
     </row>
@@ -5431,16 +4316,11 @@
       <c r="B203" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C203" s="8"/>
-      <c r="D203" s="8"/>
-      <c r="E203" s="8"/>
-      <c r="F203" s="8"/>
-      <c r="G203" s="8"/>
-      <c r="H203" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J203" s="11" t="s">
+      <c r="H203" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J203" s="6" t="s">
         <v>213</v>
       </c>
     </row>
@@ -5451,16 +4331,11 @@
       <c r="B204" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C204" s="8"/>
-      <c r="D204" s="8"/>
-      <c r="E204" s="8"/>
-      <c r="F204" s="8"/>
-      <c r="G204" s="8"/>
-      <c r="H204" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J204" s="11" t="s">
+      <c r="H204" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J204" s="6" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5471,16 +4346,11 @@
       <c r="B205" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C205" s="8"/>
-      <c r="D205" s="8"/>
-      <c r="E205" s="8"/>
-      <c r="F205" s="8"/>
-      <c r="G205" s="8"/>
-      <c r="H205" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J205" s="11" t="s">
+      <c r="H205" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J205" s="6" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5491,16 +4361,11 @@
       <c r="B206" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C206" s="8"/>
-      <c r="D206" s="8"/>
-      <c r="E206" s="8"/>
-      <c r="F206" s="8"/>
-      <c r="G206" s="8"/>
-      <c r="H206" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J206" s="11" t="s">
+      <c r="H206" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J206" s="6" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5511,16 +4376,11 @@
       <c r="B207" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C207" s="8"/>
-      <c r="D207" s="8"/>
-      <c r="E207" s="8"/>
-      <c r="F207" s="8"/>
-      <c r="G207" s="8"/>
-      <c r="H207" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J207" s="11" t="s">
+      <c r="H207" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J207" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5531,16 +4391,11 @@
       <c r="B208" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C208" s="8"/>
-      <c r="D208" s="8"/>
-      <c r="E208" s="8"/>
-      <c r="F208" s="8"/>
-      <c r="G208" s="8"/>
-      <c r="H208" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J208" s="11" t="s">
+      <c r="H208" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J208" s="6" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5551,16 +4406,11 @@
       <c r="B209" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C209" s="8"/>
-      <c r="D209" s="8"/>
-      <c r="E209" s="8"/>
-      <c r="F209" s="8"/>
-      <c r="G209" s="8"/>
-      <c r="H209" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J209" s="11" t="s">
+      <c r="H209" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J209" s="6" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5571,16 +4421,11 @@
       <c r="B210" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C210" s="8"/>
-      <c r="D210" s="8"/>
-      <c r="E210" s="8"/>
-      <c r="F210" s="8"/>
-      <c r="G210" s="8"/>
-      <c r="H210" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J210" s="11" t="s">
+      <c r="H210" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J210" s="6" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5591,16 +4436,11 @@
       <c r="B211" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C211" s="8"/>
-      <c r="D211" s="8"/>
-      <c r="E211" s="8"/>
-      <c r="F211" s="8"/>
-      <c r="G211" s="8"/>
-      <c r="H211" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J211" s="11" t="s">
+      <c r="H211" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J211" s="6" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5611,16 +4451,11 @@
       <c r="B212" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C212" s="8"/>
-      <c r="D212" s="8"/>
-      <c r="E212" s="8"/>
-      <c r="F212" s="8"/>
-      <c r="G212" s="8"/>
-      <c r="H212" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J212" s="11" t="s">
+      <c r="H212" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J212" s="6" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5631,16 +4466,11 @@
       <c r="B213" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C213" s="8"/>
-      <c r="D213" s="8"/>
-      <c r="E213" s="8"/>
-      <c r="F213" s="8"/>
-      <c r="G213" s="8"/>
-      <c r="H213" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J213" s="11" t="s">
+      <c r="H213" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J213" s="6" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5651,16 +4481,11 @@
       <c r="B214" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C214" s="8"/>
-      <c r="D214" s="8"/>
-      <c r="E214" s="8"/>
-      <c r="F214" s="8"/>
-      <c r="G214" s="8"/>
-      <c r="H214" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J214" s="11" t="s">
+      <c r="H214" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J214" s="6" t="s">
         <v>201</v>
       </c>
     </row>
